--- a/po_analysis_by_asin/B0CTTXH95Q_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTXH95Q_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>90</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>240</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>80</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>140</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>200</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>260</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>80</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>60</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>260</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>120</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>340</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>360</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>80</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>60</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>40</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>80</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>60</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>60</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>20</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>80</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>90</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>340</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>360</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>400</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>400</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>340</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>540</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>300</v>

--- a/po_analysis_by_asin/B0CTTXH95Q_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTXH95Q_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -727,6 +728,481 @@
       </c>
       <c r="B9" t="n">
         <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>149</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.17114368129885</v>
+      </c>
+      <c r="D2" t="n">
+        <v>275.8710087638053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>140</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.830337672595747</v>
+      </c>
+      <c r="D3" t="n">
+        <v>266.1529536744811</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>138</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.342076270128183</v>
+      </c>
+      <c r="D4" t="n">
+        <v>265.04887152487</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>136</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.269497358521487</v>
+      </c>
+      <c r="D5" t="n">
+        <v>268.0341724657395</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>135</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.77221792366475</v>
+      </c>
+      <c r="D6" t="n">
+        <v>257.6050360055319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>134</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.466464381769482</v>
+      </c>
+      <c r="D7" t="n">
+        <v>256.8839523663649</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>132</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.39058455250369</v>
+      </c>
+      <c r="D8" t="n">
+        <v>268.6305924947163</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>128</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.459791526998332</v>
+      </c>
+      <c r="D9" t="n">
+        <v>249.4346207973294</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>126</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3757269101645511</v>
+      </c>
+      <c r="D10" t="n">
+        <v>247.6711741974744</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>124</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4737774404029909</v>
+      </c>
+      <c r="D11" t="n">
+        <v>250.7264529744319</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>123</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-7.528521550317169</v>
+      </c>
+      <c r="D12" t="n">
+        <v>261.5550877537919</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>122</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.749404978650591</v>
+      </c>
+      <c r="D13" t="n">
+        <v>257.8776385182778</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>119</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.94257340008563</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247.1576619512947</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>118</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.799560949866214</v>
+      </c>
+      <c r="D15" t="n">
+        <v>252.9143168065282</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>111</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-19.98603266308874</v>
+      </c>
+      <c r="D16" t="n">
+        <v>245.4740680115861</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>110</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-13.86626226241932</v>
+      </c>
+      <c r="D17" t="n">
+        <v>236.2710259880828</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>109</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-17.85427466029679</v>
+      </c>
+      <c r="D18" t="n">
+        <v>239.4138913385822</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>107</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-17.18822484307755</v>
+      </c>
+      <c r="D19" t="n">
+        <v>231.0221625681071</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>106</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-24.48159067739511</v>
+      </c>
+      <c r="D20" t="n">
+        <v>232.8010878821793</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>105</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-23.27851593201581</v>
+      </c>
+      <c r="D21" t="n">
+        <v>225.5293209148228</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>103</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-30.6440741269498</v>
+      </c>
+      <c r="D22" t="n">
+        <v>232.5825551840952</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>102</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-29.51248478412736</v>
+      </c>
+      <c r="D23" t="n">
+        <v>224.4284844329815</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>101</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-20.6097257917441</v>
+      </c>
+      <c r="D24" t="n">
+        <v>231.1621427341103</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>99</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-36.66913334039158</v>
+      </c>
+      <c r="D25" t="n">
+        <v>220.0572426043311</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>98</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-32.05551752575744</v>
+      </c>
+      <c r="D26" t="n">
+        <v>225.3728245217459</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>97</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.959554926799267</v>
+      </c>
+      <c r="D27" t="n">
+        <v>230.3457883284937</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>95</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-31.23489272601154</v>
+      </c>
+      <c r="D28" t="n">
+        <v>223.3629643322965</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>94</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-29.93220177866176</v>
+      </c>
+      <c r="D29" t="n">
+        <v>219.2868836789089</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>93</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-31.78961903673084</v>
+      </c>
+      <c r="D30" t="n">
+        <v>220.5449589257795</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>91</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-24.2513142743415</v>
+      </c>
+      <c r="D31" t="n">
+        <v>217.6559297773376</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-40.03838133840313</v>
+      </c>
+      <c r="D32" t="n">
+        <v>224.838335799956</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CTTXH95Q_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTXH95Q_po_data.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,16 +760,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -778,12 +768,6 @@
       <c r="B2" t="n">
         <v>149</v>
       </c>
-      <c r="C2" t="n">
-        <v>21.17114368129885</v>
-      </c>
-      <c r="D2" t="n">
-        <v>275.8710087638053</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -792,12 +776,6 @@
       <c r="B3" t="n">
         <v>140</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.830337672595747</v>
-      </c>
-      <c r="D3" t="n">
-        <v>266.1529536744811</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -806,12 +784,6 @@
       <c r="B4" t="n">
         <v>138</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.342076270128183</v>
-      </c>
-      <c r="D4" t="n">
-        <v>265.04887152487</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -820,12 +792,6 @@
       <c r="B5" t="n">
         <v>136</v>
       </c>
-      <c r="C5" t="n">
-        <v>8.269497358521487</v>
-      </c>
-      <c r="D5" t="n">
-        <v>268.0341724657395</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -834,12 +800,6 @@
       <c r="B6" t="n">
         <v>135</v>
       </c>
-      <c r="C6" t="n">
-        <v>12.77221792366475</v>
-      </c>
-      <c r="D6" t="n">
-        <v>257.6050360055319</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -848,12 +808,6 @@
       <c r="B7" t="n">
         <v>134</v>
       </c>
-      <c r="C7" t="n">
-        <v>5.466464381769482</v>
-      </c>
-      <c r="D7" t="n">
-        <v>256.8839523663649</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -862,12 +816,6 @@
       <c r="B8" t="n">
         <v>132</v>
       </c>
-      <c r="C8" t="n">
-        <v>10.39058455250369</v>
-      </c>
-      <c r="D8" t="n">
-        <v>268.6305924947163</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -876,12 +824,6 @@
       <c r="B9" t="n">
         <v>128</v>
       </c>
-      <c r="C9" t="n">
-        <v>3.459791526998332</v>
-      </c>
-      <c r="D9" t="n">
-        <v>249.4346207973294</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -890,12 +832,6 @@
       <c r="B10" t="n">
         <v>126</v>
       </c>
-      <c r="C10" t="n">
-        <v>-0.3757269101645511</v>
-      </c>
-      <c r="D10" t="n">
-        <v>247.6711741974744</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -904,12 +840,6 @@
       <c r="B11" t="n">
         <v>124</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.4737774404029909</v>
-      </c>
-      <c r="D11" t="n">
-        <v>250.7264529744319</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -918,12 +848,6 @@
       <c r="B12" t="n">
         <v>123</v>
       </c>
-      <c r="C12" t="n">
-        <v>-7.528521550317169</v>
-      </c>
-      <c r="D12" t="n">
-        <v>261.5550877537919</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -932,12 +856,6 @@
       <c r="B13" t="n">
         <v>122</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.749404978650591</v>
-      </c>
-      <c r="D13" t="n">
-        <v>257.8776385182778</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -946,12 +864,6 @@
       <c r="B14" t="n">
         <v>119</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.94257340008563</v>
-      </c>
-      <c r="D14" t="n">
-        <v>247.1576619512947</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -960,12 +872,6 @@
       <c r="B15" t="n">
         <v>118</v>
       </c>
-      <c r="C15" t="n">
-        <v>-9.799560949866214</v>
-      </c>
-      <c r="D15" t="n">
-        <v>252.9143168065282</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -974,12 +880,6 @@
       <c r="B16" t="n">
         <v>111</v>
       </c>
-      <c r="C16" t="n">
-        <v>-19.98603266308874</v>
-      </c>
-      <c r="D16" t="n">
-        <v>245.4740680115861</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -988,12 +888,6 @@
       <c r="B17" t="n">
         <v>110</v>
       </c>
-      <c r="C17" t="n">
-        <v>-13.86626226241932</v>
-      </c>
-      <c r="D17" t="n">
-        <v>236.2710259880828</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1002,12 +896,6 @@
       <c r="B18" t="n">
         <v>109</v>
       </c>
-      <c r="C18" t="n">
-        <v>-17.85427466029679</v>
-      </c>
-      <c r="D18" t="n">
-        <v>239.4138913385822</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1016,12 +904,6 @@
       <c r="B19" t="n">
         <v>107</v>
       </c>
-      <c r="C19" t="n">
-        <v>-17.18822484307755</v>
-      </c>
-      <c r="D19" t="n">
-        <v>231.0221625681071</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1030,12 +912,6 @@
       <c r="B20" t="n">
         <v>106</v>
       </c>
-      <c r="C20" t="n">
-        <v>-24.48159067739511</v>
-      </c>
-      <c r="D20" t="n">
-        <v>232.8010878821793</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1044,12 +920,6 @@
       <c r="B21" t="n">
         <v>105</v>
       </c>
-      <c r="C21" t="n">
-        <v>-23.27851593201581</v>
-      </c>
-      <c r="D21" t="n">
-        <v>225.5293209148228</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1058,12 +928,6 @@
       <c r="B22" t="n">
         <v>103</v>
       </c>
-      <c r="C22" t="n">
-        <v>-30.6440741269498</v>
-      </c>
-      <c r="D22" t="n">
-        <v>232.5825551840952</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1072,12 +936,6 @@
       <c r="B23" t="n">
         <v>102</v>
       </c>
-      <c r="C23" t="n">
-        <v>-29.51248478412736</v>
-      </c>
-      <c r="D23" t="n">
-        <v>224.4284844329815</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1086,12 +944,6 @@
       <c r="B24" t="n">
         <v>101</v>
       </c>
-      <c r="C24" t="n">
-        <v>-20.6097257917441</v>
-      </c>
-      <c r="D24" t="n">
-        <v>231.1621427341103</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1100,12 +952,6 @@
       <c r="B25" t="n">
         <v>99</v>
       </c>
-      <c r="C25" t="n">
-        <v>-36.66913334039158</v>
-      </c>
-      <c r="D25" t="n">
-        <v>220.0572426043311</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1114,12 +960,6 @@
       <c r="B26" t="n">
         <v>98</v>
       </c>
-      <c r="C26" t="n">
-        <v>-32.05551752575744</v>
-      </c>
-      <c r="D26" t="n">
-        <v>225.3728245217459</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1128,12 +968,6 @@
       <c r="B27" t="n">
         <v>97</v>
       </c>
-      <c r="C27" t="n">
-        <v>-9.959554926799267</v>
-      </c>
-      <c r="D27" t="n">
-        <v>230.3457883284937</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1142,12 +976,6 @@
       <c r="B28" t="n">
         <v>95</v>
       </c>
-      <c r="C28" t="n">
-        <v>-31.23489272601154</v>
-      </c>
-      <c r="D28" t="n">
-        <v>223.3629643322965</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1156,12 +984,6 @@
       <c r="B29" t="n">
         <v>94</v>
       </c>
-      <c r="C29" t="n">
-        <v>-29.93220177866176</v>
-      </c>
-      <c r="D29" t="n">
-        <v>219.2868836789089</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1170,12 +992,6 @@
       <c r="B30" t="n">
         <v>93</v>
       </c>
-      <c r="C30" t="n">
-        <v>-31.78961903673084</v>
-      </c>
-      <c r="D30" t="n">
-        <v>220.5449589257795</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1184,12 +1000,6 @@
       <c r="B31" t="n">
         <v>91</v>
       </c>
-      <c r="C31" t="n">
-        <v>-24.2513142743415</v>
-      </c>
-      <c r="D31" t="n">
-        <v>217.6559297773376</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1197,12 +1007,6 @@
       </c>
       <c r="B32" t="n">
         <v>90</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-40.03838133840313</v>
-      </c>
-      <c r="D32" t="n">
-        <v>224.838335799956</v>
       </c>
     </row>
   </sheetData>
